--- a/WppRegpack/TestResource/Full_Regression/DS_CHN_FULL_REGRESSION.xlsx
+++ b/WppRegpack/TestResource/Full_Regression/DS_CHN_FULL_REGRESSION.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Jenkins\workspace\WppGlobalTestCase_Node4\WppRegpack\TestResource\Full_Regression\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Documents\China\GlobalTestPack\WppRegPack\TestResource\Full_Regression\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="41" activeTab="44"/>
   </bookViews>
   <sheets>
     <sheet name="Server Details" sheetId="1" r:id="rId1"/>
@@ -56,8 +56,9 @@
     <sheet name="Credit Note With PO" sheetId="42" r:id="rId42"/>
     <sheet name="BlockGlobalBrand" sheetId="47" r:id="rId43"/>
     <sheet name="BlockGlobalClient" sheetId="48" r:id="rId44"/>
-    <sheet name="Agency Users" sheetId="11" r:id="rId45"/>
-    <sheet name="SSC Users" sheetId="12" r:id="rId46"/>
+    <sheet name="BlockGlobalVendor" sheetId="49" r:id="rId45"/>
+    <sheet name="Agency Users" sheetId="11" r:id="rId46"/>
+    <sheet name="SSC Users" sheetId="12" r:id="rId47"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -69,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2179" uniqueCount="1211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2186" uniqueCount="1214">
   <si>
     <t>Description</t>
   </si>
@@ -3703,6 +3704,15 @@
   </si>
   <si>
     <t>111429</t>
+  </si>
+  <si>
+    <t>Company</t>
+  </si>
+  <si>
+    <t>Vendor Name</t>
+  </si>
+  <si>
+    <t>TestVendor_10 Feb</t>
   </si>
 </sst>
 </file>
@@ -4498,7 +4508,7 @@
   </sheetPr>
   <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -12500,6 +12510,69 @@
 <file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
+    <tabColor theme="5" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="47" t="s">
+        <v>451</v>
+      </c>
+      <c r="B1">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1211</v>
+      </c>
+      <c r="B2">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>430</v>
+      </c>
+      <c r="B3">
+        <v>131925</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1212</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>448</v>
+      </c>
+      <c r="B5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
   <dimension ref="A1:M11"/>
@@ -12971,7 +13044,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFC00000"/>

--- a/WppRegpack/TestResource/Full_Regression/DS_CHN_FULL_REGRESSION.xlsx
+++ b/WppRegpack/TestResource/Full_Regression/DS_CHN_FULL_REGRESSION.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Documents\China\GlobalTestPack\WppRegPack\TestResource\Full_Regression\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Music\GlobalTestPack\WppRegpack\TestResource\Critical_Regression\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="41" activeTab="44"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="21" activeTab="21"/>
   </bookViews>
   <sheets>
     <sheet name="Server Details" sheetId="1" r:id="rId1"/>
@@ -56,9 +56,8 @@
     <sheet name="Credit Note With PO" sheetId="42" r:id="rId42"/>
     <sheet name="BlockGlobalBrand" sheetId="47" r:id="rId43"/>
     <sheet name="BlockGlobalClient" sheetId="48" r:id="rId44"/>
-    <sheet name="BlockGlobalVendor" sheetId="49" r:id="rId45"/>
-    <sheet name="Agency Users" sheetId="11" r:id="rId46"/>
-    <sheet name="SSC Users" sheetId="12" r:id="rId47"/>
+    <sheet name="Agency Users" sheetId="11" r:id="rId45"/>
+    <sheet name="SSC Users" sheetId="12" r:id="rId46"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -70,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2186" uniqueCount="1214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2175" uniqueCount="1209">
   <si>
     <t>Description</t>
   </si>
@@ -607,12 +606,6 @@
   </si>
   <si>
     <t>促进</t>
-  </si>
-  <si>
-    <t>E1482</t>
-  </si>
-  <si>
-    <t>样品和产品</t>
   </si>
   <si>
     <t>代理费</t>
@@ -3704,15 +3697,6 @@
   </si>
   <si>
     <t>111429</t>
-  </si>
-  <si>
-    <t>Company</t>
-  </si>
-  <si>
-    <t>Vendor Name</t>
-  </si>
-  <si>
-    <t>TestVendor_10 Feb</t>
   </si>
 </sst>
 </file>
@@ -4544,10 +4528,10 @@
         <v>2</v>
       </c>
       <c r="B2" s="45" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C2" s="45" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D2" s="45"/>
       <c r="E2" s="45"/>
@@ -4650,28 +4634,28 @@
         <v>24</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="F2" s="25" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G2" s="25" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="H2" s="25" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="I2" s="30" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -4682,25 +4666,25 @@
         <v>26</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="H3" s="16" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="I3" s="30" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -4740,22 +4724,22 @@
         <v>1307</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="H5" s="15" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="I5" s="70">
         <v>1321</v>
@@ -4769,25 +4753,25 @@
         <v>65</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D6" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="I6" s="30" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -4827,25 +4811,25 @@
         <v>30</v>
       </c>
       <c r="C8" s="20" t="s">
+        <v>305</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>306</v>
+      </c>
+      <c r="E8" s="20" t="s">
         <v>307</v>
       </c>
-      <c r="D8" s="20" t="s">
-        <v>308</v>
-      </c>
-      <c r="E8" s="20" t="s">
-        <v>309</v>
-      </c>
       <c r="F8" s="20" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="G8" s="20" t="s">
         <v>30</v>
       </c>
       <c r="H8" s="20" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="I8" s="30" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -4853,28 +4837,28 @@
         <v>31</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="F9" s="22" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G9" s="22" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="H9" s="22" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="I9" s="30" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -4940,28 +4924,28 @@
         <v>36</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F12" s="20" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G12" s="20" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="H12" s="20" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="I12" s="20" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -4969,25 +4953,25 @@
         <v>37</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F13" s="20" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="G13" s="20" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H13" s="20" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="I13" s="71" t="s">
         <v>68</v>
@@ -5001,25 +4985,25 @@
         <v>67</v>
       </c>
       <c r="C14" s="50" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D14" s="50" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E14" s="50" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="F14" s="50" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G14" s="50" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="H14" s="50" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="I14" s="50" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -5030,22 +5014,22 @@
         <v>9</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D15" s="15" t="s">
         <v>9</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="F15" s="15" t="s">
         <v>9</v>
       </c>
       <c r="G15" s="15" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="H15" s="15" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="I15" s="30" t="s">
         <v>9</v>
@@ -5059,25 +5043,25 @@
         <v>69</v>
       </c>
       <c r="C16" s="50" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D16" s="50" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E16" s="50" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F16" s="50" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="G16" s="50" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="H16" s="50" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="I16" s="50" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -5085,25 +5069,25 @@
         <v>40</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E17" s="20" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F17" s="20" t="s">
+        <v>292</v>
+      </c>
+      <c r="G17" s="20" t="s">
         <v>294</v>
       </c>
-      <c r="G17" s="20" t="s">
-        <v>296</v>
-      </c>
       <c r="H17" s="20" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="I17" s="54">
         <v>13219505</v>
@@ -5114,25 +5098,25 @@
         <v>41</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D18" s="20" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E18" s="20" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F18" s="20" t="s">
+        <v>292</v>
+      </c>
+      <c r="G18" s="20" t="s">
         <v>294</v>
       </c>
-      <c r="G18" s="20" t="s">
-        <v>296</v>
-      </c>
       <c r="H18" s="20" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="I18" s="54">
         <v>13219505</v>
@@ -5143,28 +5127,28 @@
         <v>42</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D19" s="20" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E19" s="20" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F19" s="20" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="G19" s="20" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="H19" s="20" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="I19" s="30" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
@@ -5172,28 +5156,28 @@
         <v>55</v>
       </c>
       <c r="B20" s="62" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C20" s="62" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D20" s="62" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E20" s="62" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F20" s="62" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="G20" s="62" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="H20" s="62" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="I20" s="62" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -5300,7 +5284,7 @@
         <v>46</v>
       </c>
       <c r="B2" s="99" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -5313,10 +5297,10 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="56" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B4" s="56" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -5340,7 +5324,7 @@
         <v>47</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -5348,7 +5332,7 @@
         <v>49</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -5425,31 +5409,31 @@
         <v>24</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F2" s="25" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G2" s="25" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="H2" s="25" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="I2" s="25" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="J2" s="30" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -5463,25 +5447,25 @@
         <v>26</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="H3" s="16" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="I3" s="16" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="J3" s="30" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -5527,22 +5511,22 @@
         <v>1203</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="H5" s="15" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="I5" s="15" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="J5" s="70">
         <v>1321</v>
@@ -5556,28 +5540,28 @@
         <v>65</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E6" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="I6" s="15" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="J6" s="30" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -5623,25 +5607,25 @@
         <v>30</v>
       </c>
       <c r="D8" s="20" t="s">
+        <v>305</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>306</v>
+      </c>
+      <c r="F8" s="20" t="s">
         <v>307</v>
       </c>
-      <c r="E8" s="20" t="s">
-        <v>308</v>
-      </c>
-      <c r="F8" s="20" t="s">
-        <v>309</v>
-      </c>
       <c r="G8" s="20" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="H8" s="20" t="s">
         <v>30</v>
       </c>
       <c r="I8" s="20" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="J8" s="30" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -5649,31 +5633,31 @@
         <v>31</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F9" s="22" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G9" s="22" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="H9" s="22" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="I9" s="22" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="J9" s="30" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -5745,31 +5729,31 @@
         <v>36</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F12" s="20" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G12" s="20" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="H12" s="20" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="I12" s="20" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="J12" s="20" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -5777,28 +5761,28 @@
         <v>37</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F13" s="20" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="G13" s="20" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="H13" s="20" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="I13" s="20" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="J13" s="71" t="s">
         <v>68</v>
@@ -5812,28 +5796,28 @@
         <v>67</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D14" s="50" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E14" s="50" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F14" s="50" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G14" s="50" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H14" s="50" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="I14" s="50" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="J14" s="50" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -5847,22 +5831,22 @@
         <v>9</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E15" s="15" t="s">
         <v>9</v>
       </c>
       <c r="F15" s="15" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G15" s="15" t="s">
         <v>9</v>
       </c>
       <c r="H15" s="15" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="I15" s="15" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="J15" s="30" t="s">
         <v>9</v>
@@ -5876,28 +5860,28 @@
         <v>69</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D16" s="50" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E16" s="50" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F16" s="50" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="G16" s="50" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="H16" s="50" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="I16" s="50" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="J16" s="50" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -5905,28 +5889,28 @@
         <v>40</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E17" s="20" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F17" s="20" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="G17" s="20" t="s">
+        <v>292</v>
+      </c>
+      <c r="H17" s="20" t="s">
         <v>294</v>
       </c>
-      <c r="H17" s="20" t="s">
-        <v>296</v>
-      </c>
       <c r="I17" s="20" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="J17" s="54">
         <v>13219505</v>
@@ -5937,28 +5921,28 @@
         <v>41</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D18" s="20" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E18" s="20" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F18" s="20" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="G18" s="20" t="s">
+        <v>292</v>
+      </c>
+      <c r="H18" s="20" t="s">
         <v>294</v>
       </c>
-      <c r="H18" s="20" t="s">
-        <v>296</v>
-      </c>
       <c r="I18" s="20" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="J18" s="54">
         <v>13219505</v>
@@ -5969,31 +5953,31 @@
         <v>42</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D19" s="20" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E19" s="20" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F19" s="20" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G19" s="20" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="H19" s="20" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="I19" s="20" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="J19" s="30" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
@@ -6001,31 +5985,31 @@
         <v>55</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D20" s="62" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E20" s="62" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F20" s="62" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="G20" s="62" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="H20" s="62" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="I20" s="62" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="J20" s="62" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -6129,31 +6113,31 @@
         <v>51</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F24" s="16" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G24" s="16" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="H24" s="16" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="I24" s="16" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="J24" s="16" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -6161,31 +6145,31 @@
         <v>52</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F25" s="16" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="G25" s="16" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="H25" s="16" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="I25" s="16" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="J25" s="16" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6193,7 +6177,7 @@
         <v>50</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C26" s="10"/>
       <c r="D26" s="10"/>
@@ -6246,7 +6230,7 @@
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="58" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B2">
         <v>120310019</v>
@@ -6257,7 +6241,7 @@
         <v>24</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -6265,7 +6249,7 @@
         <v>25</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -6273,7 +6257,7 @@
         <v>27</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -6281,7 +6265,7 @@
         <v>28</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -6297,7 +6281,7 @@
         <v>31</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -6321,7 +6305,7 @@
         <v>36</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -6378,7 +6362,7 @@
         <v>46</v>
       </c>
       <c r="B2" s="56" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -6399,10 +6383,10 @@
     </row>
     <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="56" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B5" s="56" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -6426,7 +6410,7 @@
         <v>49</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -6461,55 +6445,55 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C1" s="30" t="s">
         <v>77</v>
       </c>
       <c r="D1" s="30" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="E1" s="30" t="s">
         <v>138</v>
       </c>
       <c r="F1" s="30" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="G1" s="30" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="H1" s="30" t="s">
         <v>81</v>
       </c>
       <c r="I1" s="30" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="J1" s="30" t="s">
         <v>142</v>
       </c>
       <c r="K1" s="30" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="L1" s="30" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="M1" s="30" t="s">
         <v>85</v>
       </c>
       <c r="N1" s="30" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="O1" s="30" t="s">
         <v>146</v>
       </c>
       <c r="P1" s="30" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="Q1" s="30" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -6517,52 +6501,52 @@
         <v>1307</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C2" s="30" t="s">
         <v>73</v>
       </c>
       <c r="D2" s="30" t="s">
+        <v>500</v>
+      </c>
+      <c r="E2" s="30" t="s">
+        <v>501</v>
+      </c>
+      <c r="F2" s="30" t="s">
         <v>502</v>
       </c>
-      <c r="E2" s="30" t="s">
+      <c r="G2" s="30" t="s">
         <v>503</v>
       </c>
-      <c r="F2" s="30" t="s">
+      <c r="H2" s="30" t="s">
+        <v>290</v>
+      </c>
+      <c r="I2" s="30" t="s">
         <v>504</v>
       </c>
-      <c r="G2" s="30" t="s">
+      <c r="J2" s="30" t="s">
         <v>505</v>
       </c>
-      <c r="H2" s="30" t="s">
-        <v>292</v>
-      </c>
-      <c r="I2" s="30" t="s">
+      <c r="K2" s="30" t="s">
+        <v>474</v>
+      </c>
+      <c r="L2" s="30" t="s">
+        <v>474</v>
+      </c>
+      <c r="M2" s="30" t="s">
         <v>506</v>
       </c>
-      <c r="J2" s="30" t="s">
+      <c r="N2" s="30" t="s">
         <v>507</v>
       </c>
-      <c r="K2" s="30" t="s">
-        <v>476</v>
-      </c>
-      <c r="L2" s="30" t="s">
-        <v>476</v>
-      </c>
-      <c r="M2" s="30" t="s">
+      <c r="O2" s="30" t="s">
+        <v>442</v>
+      </c>
+      <c r="P2" s="30" t="s">
         <v>508</v>
       </c>
-      <c r="N2" s="30" t="s">
+      <c r="Q2" s="30" t="s">
         <v>509</v>
-      </c>
-      <c r="O2" s="30" t="s">
-        <v>444</v>
-      </c>
-      <c r="P2" s="30" t="s">
-        <v>510</v>
-      </c>
-      <c r="Q2" s="30" t="s">
-        <v>511</v>
       </c>
     </row>
   </sheetData>
@@ -6598,18 +6582,18 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B2" s="65" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B3" s="65" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
   </sheetData>
@@ -6637,7 +6621,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="47" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B1" s="31" t="s">
         <v>75</v>
@@ -6645,10 +6629,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -6656,7 +6640,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
   </sheetData>
@@ -6687,22 +6671,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="47" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
       </c>
       <c r="E1" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -6716,13 +6700,13 @@
         <v>1307700041</v>
       </c>
       <c r="D2" t="s">
+        <v>487</v>
+      </c>
+      <c r="E2" t="s">
+        <v>488</v>
+      </c>
+      <c r="F2" t="s">
         <v>489</v>
-      </c>
-      <c r="E2" t="s">
-        <v>490</v>
-      </c>
-      <c r="F2" t="s">
-        <v>491</v>
       </c>
     </row>
   </sheetData>
@@ -6766,7 +6750,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B3">
         <v>1307700044</v>
@@ -6800,7 +6784,7 @@
   <sheetData>
     <row r="1" spans="1:167" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B1" s="14">
         <v>1201</v>
@@ -6995,7 +6979,7 @@
     </row>
     <row r="2" spans="1:167" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C2" s="64"/>
       <c r="E2" s="64"/>
@@ -7007,27 +6991,27 @@
     </row>
     <row r="3" spans="1:167" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="4" spans="1:167" x14ac:dyDescent="0.25">
       <c r="A4" s="30" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="5" spans="1:167" x14ac:dyDescent="0.25">
       <c r="A5" s="30" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="6" spans="1:167" x14ac:dyDescent="0.25">
       <c r="A6" s="30" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="7" spans="1:167" x14ac:dyDescent="0.25">
       <c r="A7" s="30" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
     </row>
   </sheetData>
@@ -7063,7 +7047,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="79" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B2" s="30"/>
     </row>
@@ -7075,10 +7059,10 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="79" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B4" s="65" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
   </sheetData>
@@ -7114,7 +7098,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="79" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B2" s="30"/>
     </row>
@@ -7126,10 +7110,10 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="79" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B4" s="65" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
   </sheetData>
@@ -7145,8 +7129,8 @@
   </sheetPr>
   <dimension ref="A1:AQ2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7200,10 +7184,10 @@
         <v>76</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C1" s="27" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D1" s="27" t="s">
         <v>136</v>
@@ -7215,7 +7199,7 @@
         <v>138</v>
       </c>
       <c r="G1" s="27" t="s">
-        <v>431</v>
+        <v>139</v>
       </c>
       <c r="H1" s="27" t="s">
         <v>140</v>
@@ -7227,7 +7211,7 @@
         <v>142</v>
       </c>
       <c r="K1" s="27" t="s">
-        <v>432</v>
+        <v>143</v>
       </c>
       <c r="L1" s="27" t="s">
         <v>144</v>
@@ -7239,7 +7223,7 @@
         <v>146</v>
       </c>
       <c r="O1" s="27" t="s">
-        <v>433</v>
+        <v>147</v>
       </c>
       <c r="P1" s="27" t="s">
         <v>148</v>
@@ -7251,7 +7235,7 @@
         <v>150</v>
       </c>
       <c r="S1" s="27" t="s">
-        <v>434</v>
+        <v>151</v>
       </c>
       <c r="T1" s="27" t="s">
         <v>152</v>
@@ -7263,7 +7247,7 @@
         <v>154</v>
       </c>
       <c r="W1" s="27" t="s">
-        <v>435</v>
+        <v>155</v>
       </c>
       <c r="X1" s="27" t="s">
         <v>156</v>
@@ -7275,7 +7259,7 @@
         <v>158</v>
       </c>
       <c r="AA1" s="27" t="s">
-        <v>436</v>
+        <v>159</v>
       </c>
       <c r="AB1" s="27" t="s">
         <v>160</v>
@@ -7287,7 +7271,7 @@
         <v>162</v>
       </c>
       <c r="AE1" s="27" t="s">
-        <v>437</v>
+        <v>163</v>
       </c>
       <c r="AF1" s="27" t="s">
         <v>164</v>
@@ -7299,7 +7283,7 @@
         <v>166</v>
       </c>
       <c r="AI1" s="27" t="s">
-        <v>438</v>
+        <v>167</v>
       </c>
       <c r="AJ1" s="27" t="s">
         <v>168</v>
@@ -7311,7 +7295,7 @@
         <v>170</v>
       </c>
       <c r="AM1" s="27" t="s">
-        <v>439</v>
+        <v>171</v>
       </c>
       <c r="AN1" s="27" t="s">
         <v>172</v>
@@ -7323,7 +7307,7 @@
         <v>174</v>
       </c>
       <c r="AQ1" s="27" t="s">
-        <v>440</v>
+        <v>175</v>
       </c>
     </row>
     <row r="2" spans="1:43" x14ac:dyDescent="0.25">
@@ -7331,7 +7315,7 @@
         <v>1307</v>
       </c>
       <c r="B2" s="64" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C2" s="64"/>
       <c r="D2" t="s">
@@ -7350,7 +7334,7 @@
         <v>74</v>
       </c>
       <c r="I2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -7372,8 +7356,8 @@
   </sheetPr>
   <dimension ref="A1:AQ7"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7418,10 +7402,10 @@
         <v>76</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C1" s="27" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D1" s="27" t="s">
         <v>136</v>
@@ -7433,7 +7417,7 @@
         <v>138</v>
       </c>
       <c r="G1" s="27" t="s">
-        <v>431</v>
+        <v>139</v>
       </c>
       <c r="H1" s="27" t="s">
         <v>140</v>
@@ -7445,7 +7429,7 @@
         <v>142</v>
       </c>
       <c r="K1" s="27" t="s">
-        <v>432</v>
+        <v>143</v>
       </c>
       <c r="L1" s="27" t="s">
         <v>144</v>
@@ -7457,7 +7441,7 @@
         <v>146</v>
       </c>
       <c r="O1" s="27" t="s">
-        <v>433</v>
+        <v>147</v>
       </c>
       <c r="P1" s="27" t="s">
         <v>148</v>
@@ -7469,7 +7453,7 @@
         <v>150</v>
       </c>
       <c r="S1" s="27" t="s">
-        <v>434</v>
+        <v>151</v>
       </c>
       <c r="T1" s="27" t="s">
         <v>152</v>
@@ -7481,7 +7465,7 @@
         <v>154</v>
       </c>
       <c r="W1" s="27" t="s">
-        <v>435</v>
+        <v>155</v>
       </c>
       <c r="X1" s="27" t="s">
         <v>156</v>
@@ -7493,7 +7477,7 @@
         <v>158</v>
       </c>
       <c r="AA1" s="27" t="s">
-        <v>436</v>
+        <v>159</v>
       </c>
       <c r="AB1" s="27" t="s">
         <v>160</v>
@@ -7505,7 +7489,7 @@
         <v>162</v>
       </c>
       <c r="AE1" s="27" t="s">
-        <v>437</v>
+        <v>163</v>
       </c>
       <c r="AF1" s="27" t="s">
         <v>164</v>
@@ -7517,7 +7501,7 @@
         <v>166</v>
       </c>
       <c r="AI1" s="27" t="s">
-        <v>438</v>
+        <v>167</v>
       </c>
       <c r="AJ1" s="27" t="s">
         <v>168</v>
@@ -7529,7 +7513,7 @@
         <v>170</v>
       </c>
       <c r="AM1" s="27" t="s">
-        <v>439</v>
+        <v>171</v>
       </c>
       <c r="AN1" s="27" t="s">
         <v>172</v>
@@ -7541,7 +7525,7 @@
         <v>174</v>
       </c>
       <c r="AQ1" s="27" t="s">
-        <v>440</v>
+        <v>175</v>
       </c>
     </row>
     <row r="2" spans="1:43" x14ac:dyDescent="0.25">
@@ -7552,19 +7536,7 @@
         <v>131885</v>
       </c>
       <c r="C2" s="64" t="s">
-        <v>1124</v>
-      </c>
-      <c r="D2" t="s">
-        <v>177</v>
-      </c>
-      <c r="E2" t="s">
-        <v>178</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>1500</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="3" spans="1:43" x14ac:dyDescent="0.25">
@@ -7578,10 +7550,10 @@
         <v>1228200896</v>
       </c>
       <c r="D3" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="E3" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -7601,10 +7573,10 @@
         <v>1322200293</v>
       </c>
       <c r="D4" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="E4" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="F4">
         <v>2</v>
@@ -7624,10 +7596,10 @@
         <v>1284200914</v>
       </c>
       <c r="D5" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="E5" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -7647,10 +7619,10 @@
         <v>1201200189</v>
       </c>
       <c r="D6" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="E6" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="F6">
         <v>2</v>
@@ -7670,10 +7642,10 @@
         <v>1289200118</v>
       </c>
       <c r="D7" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="E7" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="F7">
         <v>2</v>
@@ -7713,42 +7685,42 @@
         <v>1307</v>
       </c>
       <c r="C1" s="31" t="s">
+        <v>1194</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>1195</v>
+      </c>
+      <c r="E1" s="31" t="s">
+        <v>276</v>
+      </c>
+      <c r="F1" s="31" t="s">
         <v>1196</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="G1" s="31" t="s">
         <v>1197</v>
-      </c>
-      <c r="E1" s="31" t="s">
-        <v>278</v>
-      </c>
-      <c r="F1" s="31" t="s">
-        <v>1198</v>
-      </c>
-      <c r="G1" s="31" t="s">
-        <v>1199</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="79" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B2" s="65" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="C2" s="65" t="s">
+        <v>1198</v>
+      </c>
+      <c r="D2" s="64" t="s">
+        <v>1199</v>
+      </c>
+      <c r="E2" s="64" t="s">
         <v>1200</v>
       </c>
-      <c r="D2" s="64" t="s">
+      <c r="F2" s="64" t="s">
         <v>1201</v>
       </c>
-      <c r="E2" s="64" t="s">
+      <c r="G2" s="64" t="s">
         <v>1202</v>
-      </c>
-      <c r="F2" s="64" t="s">
-        <v>1203</v>
-      </c>
-      <c r="G2" s="64" t="s">
-        <v>1204</v>
       </c>
     </row>
   </sheetData>
@@ -7782,42 +7754,42 @@
         <v>1307</v>
       </c>
       <c r="C1" s="31" t="s">
+        <v>1194</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>1195</v>
+      </c>
+      <c r="E1" s="31" t="s">
+        <v>276</v>
+      </c>
+      <c r="F1" s="31" t="s">
         <v>1196</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="G1" s="31" t="s">
         <v>1197</v>
-      </c>
-      <c r="E1" s="31" t="s">
-        <v>278</v>
-      </c>
-      <c r="F1" s="31" t="s">
-        <v>1198</v>
-      </c>
-      <c r="G1" s="31" t="s">
-        <v>1199</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="79" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B2" s="65" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="C2" s="65" t="s">
+        <v>1198</v>
+      </c>
+      <c r="D2" s="64" t="s">
+        <v>1199</v>
+      </c>
+      <c r="E2" s="64" t="s">
         <v>1200</v>
       </c>
-      <c r="D2" s="64" t="s">
+      <c r="F2" s="64" t="s">
         <v>1201</v>
       </c>
-      <c r="E2" s="64" t="s">
+      <c r="G2" s="64" t="s">
         <v>1202</v>
-      </c>
-      <c r="F2" s="64" t="s">
-        <v>1203</v>
-      </c>
-      <c r="G2" s="64" t="s">
-        <v>1204</v>
       </c>
     </row>
   </sheetData>
@@ -7845,7 +7817,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B1">
         <v>1307</v>
@@ -7853,10 +7825,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B2" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -7864,7 +7836,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -7885,7 +7857,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="30" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B6" s="95">
         <v>43867</v>
@@ -7893,7 +7865,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B7">
         <v>3500</v>
@@ -7901,10 +7873,10 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B8" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
   </sheetData>
@@ -7942,34 +7914,34 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="30" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="30" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -8013,7 +7985,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B2" t="s">
         <v>75</v>
@@ -8021,34 +7993,34 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B3" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B4" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="82" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B5" s="84" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="82" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B6" s="84" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
   </sheetData>
@@ -8084,42 +8056,42 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="82" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B2" s="85" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="59" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B3" s="92" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="59" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B4" s="84" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="59" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B5" s="85" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="60" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B6" s="86" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
   </sheetData>
@@ -8146,15 +8118,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B2" s="30">
         <v>83.62</v>
@@ -8162,7 +8134,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="B3" s="30">
         <v>1.39</v>
@@ -8170,7 +8142,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="B4" s="30">
         <v>4.72</v>
@@ -8178,7 +8150,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="B5" s="30">
         <v>323363078.55000001</v>
@@ -8186,7 +8158,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="B6" s="30">
         <v>323325.90999999997</v>
@@ -8194,7 +8166,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B7" s="30">
         <v>1.1100000000000001</v>
@@ -8202,7 +8174,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B8" s="30">
         <v>1.24</v>
@@ -8210,7 +8182,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="B9" s="30">
         <v>4.55</v>
@@ -8218,7 +8190,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B10" s="30">
         <v>135.61000000000001</v>
@@ -8226,7 +8198,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B11" s="30">
         <v>589.11</v>
@@ -8234,7 +8206,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="B12" s="30">
         <v>2.19</v>
@@ -8242,7 +8214,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B13" s="30">
         <v>430.35</v>
@@ -8250,7 +8222,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B14" s="30">
         <v>53.58</v>
@@ -8258,170 +8230,170 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B15" s="30" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B16" s="30" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="B17" s="30" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="B18" s="30" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="B19" s="30" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="B20" s="30" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="B21" s="30" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="B22" s="30" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B23" s="30" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="B24" s="30" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="B25" s="30" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="B26" s="30" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="B27" s="30" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="B28" s="30" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B29" s="30" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="B30" s="30" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B31" s="30" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="B32" s="30" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="B33" s="30" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="B34" s="30" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B35" s="30" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -8429,879 +8401,879 @@
         <v>117</v>
       </c>
       <c r="B36" s="30" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="B37" s="30" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="B38" s="30" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="B39" s="30" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="B40" s="30" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="B41" s="30" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B42" s="30" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="B43" s="30" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B44" s="30" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="B45" s="30" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="B46" s="30" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="B47" s="30" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="B48" s="30" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="B49" s="30" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="B50" s="30" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="B51" s="30" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="B52" s="30" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="B53" s="30" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="B54" s="30" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="B55" s="30" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="B56" s="30" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="B57" s="30" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="B58" s="30" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="B59" s="30" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B60" s="30" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="B61" s="30" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="B62" s="30" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B63" s="30" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="B64" s="30" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="B65" s="30" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="B66" s="30" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="B67" s="30" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="B68" s="30" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="B69" s="30" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="B70" s="30" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B71" s="30" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="B72" s="30" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="B73" s="30" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="B74" s="30" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B75" s="30" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="B76" s="30" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="B77" s="30" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="B78" s="30" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="B79" s="30" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="B80" s="30" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="B81" s="30" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="B82" s="30" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="B83" s="30" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="B84" s="30" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="B85" s="30" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="B86" s="30" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="B87" s="30" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="B88" s="30" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="B89" s="30" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="B90" s="30" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="B91" s="30" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="B92" s="30" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="B93" s="30" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="B94" s="30" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="B95" s="30" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="B96" s="30" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="B97" s="30" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="B98" s="30" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="B99" s="30" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="B100" s="30" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="B101" s="30" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B102" s="30" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="B103" s="30" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="B104" s="30" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="B105" s="30" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="B106" s="30" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="B107" s="30" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="B108" s="30" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="B109" s="30" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="B110" s="30" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="B111" s="30" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="B112" s="30" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="B113" s="30" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="B114" s="30" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="B115" s="30" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="B116" s="30" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="B117" s="30" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="B118" s="30" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="B119" s="30" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="B120" s="30" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="B121" s="30" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="B122" s="30" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="B123" s="30" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="B124" s="30" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="B125" s="30" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="B126" s="30" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="B127" s="30" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="B128" s="30" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="B129" s="30" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="B130" s="30" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="B131" s="30" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="B132" s="30" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="B133" s="30" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="B134" s="30" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="B135" s="30" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="B136" s="30" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="B137" s="30" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="B138" s="30" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="B139" s="30" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="B140" s="30" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="B141" s="30" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="B142" s="30" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="B143" s="30" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="B144" s="30" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="B145" s="30" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
     </row>
   </sheetData>
@@ -9337,7 +9309,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="59" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B2" s="93" t="s">
         <v>75</v>
@@ -9345,34 +9317,34 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="59" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B3" s="93" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="59" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B4" s="88" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="59" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B5" s="89" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="90" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B6" s="91" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
   </sheetData>
@@ -9403,49 +9375,49 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
+        <v>449</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>450</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>461</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>1110</v>
+      </c>
+      <c r="E1" s="27" t="s">
         <v>451</v>
-      </c>
-      <c r="B1" s="27" t="s">
-        <v>452</v>
-      </c>
-      <c r="C1" s="27" t="s">
-        <v>463</v>
-      </c>
-      <c r="D1" s="27" t="s">
-        <v>1112</v>
-      </c>
-      <c r="E1" s="27" t="s">
-        <v>453</v>
       </c>
       <c r="F1" s="27" t="s">
         <v>0</v>
       </c>
       <c r="G1" s="27" t="s">
+        <v>452</v>
+      </c>
+      <c r="H1" s="27" t="s">
+        <v>453</v>
+      </c>
+      <c r="I1" s="27" t="s">
         <v>454</v>
       </c>
-      <c r="H1" s="27" t="s">
+      <c r="J1" s="27" t="s">
         <v>455</v>
       </c>
-      <c r="I1" s="27" t="s">
+      <c r="K1" s="27" t="s">
         <v>456</v>
       </c>
-      <c r="J1" s="27" t="s">
+      <c r="L1" s="27" t="s">
         <v>457</v>
       </c>
-      <c r="K1" s="27" t="s">
+      <c r="M1" s="27" t="s">
         <v>458</v>
       </c>
-      <c r="L1" s="27" t="s">
+      <c r="N1" s="27" t="s">
         <v>459</v>
       </c>
-      <c r="M1" s="27" t="s">
+      <c r="O1" s="27" t="s">
         <v>460</v>
-      </c>
-      <c r="N1" s="27" t="s">
-        <v>461</v>
-      </c>
-      <c r="O1" s="27" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -9453,19 +9425,19 @@
         <v>1307</v>
       </c>
       <c r="B2" s="65" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="C2" s="65" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="D2" s="65" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="E2" s="64" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="F2" s="64" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
     </row>
   </sheetData>
@@ -9500,10 +9472,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="79" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B2" s="64" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
     </row>
   </sheetData>
@@ -9538,10 +9510,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="79" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B2" s="64" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
     </row>
   </sheetData>
@@ -9585,18 +9557,18 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B3" s="64" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B4" s="64" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
   </sheetData>
@@ -9625,7 +9597,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B1" s="47" t="s">
         <v>75</v>
@@ -9641,10 +9613,10 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -9652,20 +9624,20 @@
         <v>0</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="30" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="30" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B6" s="30" t="s">
         <v>117</v>
@@ -9673,10 +9645,10 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="30" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B7" s="30" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
   </sheetData>
@@ -9705,54 +9677,54 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="47" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D1" s="30" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="30" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="F1" s="30" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="G1" s="30" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="H1" s="30" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="47" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B2" s="30">
         <v>1307</v>
       </c>
       <c r="C2" s="30" t="s">
+        <v>535</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>536</v>
+      </c>
+      <c r="E2" s="30" t="s">
         <v>537</v>
-      </c>
-      <c r="D2" s="30" t="s">
-        <v>538</v>
-      </c>
-      <c r="E2" s="30" t="s">
-        <v>539</v>
       </c>
       <c r="F2" s="30" t="s">
         <v>117</v>
       </c>
       <c r="G2" s="30" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="H2" s="30" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
   </sheetData>
@@ -9780,7 +9752,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B1">
         <v>1307</v>
@@ -9788,10 +9760,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -9804,10 +9776,10 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="30" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
   </sheetData>
@@ -9840,66 +9812,66 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="47" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D1" s="30" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="30" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="F1" s="30" t="s">
+        <v>525</v>
+      </c>
+      <c r="G1" s="30" t="s">
+        <v>526</v>
+      </c>
+      <c r="H1" s="30" t="s">
+        <v>446</v>
+      </c>
+      <c r="I1" s="30" t="s">
         <v>527</v>
       </c>
-      <c r="G1" s="30" t="s">
-        <v>528</v>
-      </c>
-      <c r="H1" s="30" t="s">
-        <v>448</v>
-      </c>
-      <c r="I1" s="30" t="s">
-        <v>529</v>
-      </c>
       <c r="J1" s="30" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="47" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B2" s="30">
         <v>1307</v>
       </c>
       <c r="C2" s="30" t="s">
+        <v>528</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>529</v>
+      </c>
+      <c r="E2" s="30" t="s">
         <v>530</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="F2" s="30" t="s">
+        <v>524</v>
+      </c>
+      <c r="G2" s="30" t="s">
         <v>531</v>
       </c>
-      <c r="E2" s="30" t="s">
+      <c r="H2" s="30" t="s">
         <v>532</v>
       </c>
-      <c r="F2" s="30" t="s">
-        <v>526</v>
-      </c>
-      <c r="G2" s="30" t="s">
+      <c r="I2" s="30" t="s">
         <v>533</v>
       </c>
-      <c r="H2" s="30" t="s">
-        <v>534</v>
-      </c>
-      <c r="I2" s="30" t="s">
-        <v>535</v>
-      </c>
       <c r="J2" s="30" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -9931,37 +9903,37 @@
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="47" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="D1" s="30" t="s">
         <v>0</v>
       </c>
       <c r="E1" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="F1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="G1" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="H1" t="s">
         <v>126</v>
       </c>
       <c r="I1" s="30" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="J1" s="30" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="K1" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -9972,28 +9944,28 @@
         <v>75</v>
       </c>
       <c r="C2" t="s">
+        <v>542</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1136</v>
+      </c>
+      <c r="E2" t="s">
+        <v>543</v>
+      </c>
+      <c r="F2" t="s">
         <v>544</v>
-      </c>
-      <c r="D2" t="s">
-        <v>1138</v>
-      </c>
-      <c r="E2" t="s">
-        <v>545</v>
-      </c>
-      <c r="F2" t="s">
-        <v>546</v>
       </c>
       <c r="G2">
         <v>111398</v>
       </c>
       <c r="H2" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="I2">
         <v>1307200433</v>
       </c>
       <c r="J2" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="K2">
         <v>1000</v>
@@ -10026,7 +9998,7 @@
         <v>27</v>
       </c>
       <c r="B1" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -10039,2018 +10011,2018 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B3" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B4" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="B5" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B6" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B7" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B8" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B9" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="B10" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B11" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B12" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B13" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B14" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B15" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="B16" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B17" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B18" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B19" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="B20" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B21" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B22" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="B23" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B24" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="B25" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="B26" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B27" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="B28" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="B29" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="B30" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="B31" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="B32" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="B33" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="B34" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="B35" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="B36" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="B37" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="B38" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="B39" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B40" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="B41" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B42" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="B43" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="B44" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="B45" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="B46" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="B47" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="B48" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="B49" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B50" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="B51" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="B52" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="B53" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="B54" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="B55" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="B56" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="B57" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="B58" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="B59" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="B60" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="B61" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="B62" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="B63" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="B64" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="B65" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="B66" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="B67" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="B68" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="B69" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="B70" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="B71" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="B72" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="B73" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="B74" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="B75" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="B76" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="B77" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="B78" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="B79" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="B80" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="B81" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="B82" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="B83" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="B84" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="B85" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="B86" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="B87" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="B88" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="B89" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="B90" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="B91" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="B92" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="B93" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="B94" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="B95" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="B96" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="B97" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="B98" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="B99" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="B100" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="B101" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="B102" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="B103" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="B104" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="B105" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="B106" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="B107" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="B108" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="B109" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="B110" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B111" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="B112" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="B113" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="B114" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="B115" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="B116" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B117" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B118" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="B119" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="B120" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="B121" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="B122" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="B123" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="B124" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="B125" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="B126" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="B127" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="B128" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="B129" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="B130" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="B131" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="B132" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="B133" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="B134" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B135" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="B136" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="B137" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="B138" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="B139" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="B140" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="B141" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="B142" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="B143" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="B144" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="B145" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="B146" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="B147" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="B148" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="B149" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="B150" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B151" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="B152" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="B153" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="B154" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="B155" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="B156" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="B157" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="B158" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="B159" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="B160" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="B161" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="B162" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="B163" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="B164" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="B165" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="B166" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="B167" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="B168" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="B169" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="B170" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="B171" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="B172" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="B173" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="B174" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="B175" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="B176" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="B177" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="B178" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="B179" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="B180" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="B181" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="B182" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="B183" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="B184" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="B185" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="B186" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="B187" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="B188" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="B189" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="B190" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="B191" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="B192" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="B193" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="B194" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="B195" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="B196" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="B197" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="B198" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="B199" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="B200" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="B201" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="B202" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="B203" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="B204" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="B205" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="B206" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="B207" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="B208" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="B209" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="B210" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="B211" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="B212" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="B213" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="B214" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="B215" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="B216" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="B217" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="B218" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="B219" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="B220" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="B221" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="B222" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="B223" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="B224" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="B225" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="B226" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="B227" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="B228" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="B229" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="B230" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="B231" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="B232" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="B233" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="B234" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="B235" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="B236" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="B237" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="B238" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="B239" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="B240" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="B241" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="B242" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="B243" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="B244" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="B245" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="B246" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="B247" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="B248" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="B249" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="B250" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="B251" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="B252" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="B253" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="B254" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
   </sheetData>
@@ -12082,7 +12054,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="47" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -12095,31 +12067,31 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="30" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="30" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="30" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="B6" s="30">
         <v>131885</v>
@@ -12127,10 +12099,10 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="30" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B7" s="30" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
   </sheetData>
@@ -12161,7 +12133,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="47" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -12174,31 +12146,31 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="30" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="30" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="30" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="B6" s="30">
         <v>131885</v>
@@ -12238,10 +12210,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="27" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D1" s="27" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E1" s="27" t="s">
         <v>136</v>
@@ -12253,7 +12225,7 @@
         <v>138</v>
       </c>
       <c r="H1" s="27" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="I1" s="27" t="s">
         <v>140</v>
@@ -12265,7 +12237,7 @@
         <v>142</v>
       </c>
       <c r="L1" s="27" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="M1" s="27" t="s">
         <v>144</v>
@@ -12277,7 +12249,7 @@
         <v>146</v>
       </c>
       <c r="P1" s="27" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="Q1" s="27" t="s">
         <v>148</v>
@@ -12289,7 +12261,7 @@
         <v>150</v>
       </c>
       <c r="T1" s="27" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="U1" s="27" t="s">
         <v>152</v>
@@ -12301,7 +12273,7 @@
         <v>154</v>
       </c>
       <c r="X1" s="27" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="Y1" s="27" t="s">
         <v>156</v>
@@ -12313,7 +12285,7 @@
         <v>158</v>
       </c>
       <c r="AB1" s="27" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="AC1" s="27" t="s">
         <v>160</v>
@@ -12325,7 +12297,7 @@
         <v>162</v>
       </c>
       <c r="AF1" s="27" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="AG1" s="27" t="s">
         <v>164</v>
@@ -12337,7 +12309,7 @@
         <v>166</v>
       </c>
       <c r="AJ1" s="27" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="AK1" s="27" t="s">
         <v>168</v>
@@ -12349,7 +12321,7 @@
         <v>170</v>
       </c>
       <c r="AN1" s="27" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="AO1" s="27" t="s">
         <v>172</v>
@@ -12361,12 +12333,12 @@
         <v>174</v>
       </c>
       <c r="AR1" s="27" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="2" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A2" s="96" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B2" s="96">
         <v>1319</v>
@@ -12378,10 +12350,10 @@
         <v>1319200043</v>
       </c>
       <c r="E2" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="F2" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -12424,34 +12396,34 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="B2" s="65" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="30" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="B4" s="110" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="30" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
     </row>
   </sheetData>
@@ -12487,7 +12459,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="B2" s="30">
         <v>111429</v>
@@ -12495,10 +12467,10 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
   </sheetData>
@@ -12508,69 +12480,6 @@
 </file>
 
 <file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor theme="5" tint="0.59999389629810485"/>
-  </sheetPr>
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="47" t="s">
-        <v>451</v>
-      </c>
-      <c r="B1">
-        <v>1307</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1211</v>
-      </c>
-      <c r="B2">
-        <v>1307</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>430</v>
-      </c>
-      <c r="B3">
-        <v>131925</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>1212</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1213</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>448</v>
-      </c>
-      <c r="B5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFC00000"/>
@@ -12601,22 +12510,22 @@
         <v>1203</v>
       </c>
       <c r="E1" s="26" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F1" s="31" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="G1" s="66" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="H1" s="66" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="I1" s="66" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="J1" s="66" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="K1" s="66">
         <v>1321</v>
@@ -12630,43 +12539,43 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="37" t="s">
+        <v>215</v>
+      </c>
+      <c r="B2" s="43" t="s">
+        <v>216</v>
+      </c>
+      <c r="C2" s="38" t="s">
         <v>217</v>
       </c>
-      <c r="B2" s="43" t="s">
-        <v>218</v>
-      </c>
-      <c r="C2" s="38" t="s">
-        <v>219</v>
-      </c>
       <c r="D2" s="43" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E2" s="43" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="F2" s="43" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G2" s="43" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="H2" s="43" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="I2" s="43" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="J2" s="43" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="K2" s="43" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="L2" s="43" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="M2" s="43" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -12674,81 +12583,81 @@
         <v>13</v>
       </c>
       <c r="B3" s="43" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C3" s="38" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D3" s="43" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E3" s="43" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F3" s="43" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="G3" s="43" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="H3" s="43" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="I3" s="43" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="J3" s="43" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="K3" s="43" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="L3" s="43" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="M3" s="43" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="37" t="s">
+        <v>220</v>
+      </c>
+      <c r="B4" s="43" t="s">
+        <v>221</v>
+      </c>
+      <c r="C4" s="38" t="s">
         <v>222</v>
       </c>
-      <c r="B4" s="43" t="s">
-        <v>223</v>
-      </c>
-      <c r="C4" s="38" t="s">
-        <v>224</v>
-      </c>
       <c r="D4" s="43" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E4" s="43" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="F4" s="43" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G4" s="43" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="H4" s="43" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="I4" s="43" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="J4" s="43" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="K4" s="43" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="L4" s="43" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="M4" s="43" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -12756,40 +12665,40 @@
         <v>14</v>
       </c>
       <c r="B5" s="43" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C5" s="38" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D5" s="43" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E5" s="43" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F5" s="43" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="G5" s="43" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="H5" s="43" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="I5" s="43" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="J5" s="43" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="K5" s="43" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="L5" s="43" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="M5" s="43" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -12797,209 +12706,209 @@
         <v>15</v>
       </c>
       <c r="B6" s="43" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C6" s="38" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D6" s="43" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E6" s="43" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="F6" s="43" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="G6" s="43" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="H6" s="43" t="s">
+        <v>289</v>
+      </c>
+      <c r="I6" s="43" t="s">
         <v>291</v>
       </c>
-      <c r="I6" s="43" t="s">
+      <c r="J6" s="43" t="s">
         <v>293</v>
       </c>
-      <c r="J6" s="43" t="s">
-        <v>295</v>
-      </c>
       <c r="K6" s="43" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="L6" s="43" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="M6" s="43" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="37" t="s">
+        <v>227</v>
+      </c>
+      <c r="B7" s="43" t="s">
+        <v>228</v>
+      </c>
+      <c r="C7" s="38" t="s">
         <v>229</v>
       </c>
-      <c r="B7" s="43" t="s">
-        <v>230</v>
-      </c>
-      <c r="C7" s="38" t="s">
-        <v>231</v>
-      </c>
       <c r="D7" s="43" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E7" s="43" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="F7" s="43" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="G7" s="43" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="H7" s="43" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="I7" s="43" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="J7" s="43" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="K7" s="43" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="L7" s="43" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="M7" s="43" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="37" t="s">
+        <v>230</v>
+      </c>
+      <c r="B8" s="43" t="s">
+        <v>231</v>
+      </c>
+      <c r="C8" s="38" t="s">
         <v>232</v>
       </c>
-      <c r="B8" s="43" t="s">
-        <v>233</v>
-      </c>
-      <c r="C8" s="38" t="s">
-        <v>234</v>
-      </c>
       <c r="D8" s="43" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E8" s="43" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F8" s="43" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="G8" s="43" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="H8" s="43" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I8" s="43" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="J8" s="43" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="K8" s="43" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="L8" s="43" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="M8" s="43" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="37" t="s">
+        <v>233</v>
+      </c>
+      <c r="B9" s="43" t="s">
+        <v>234</v>
+      </c>
+      <c r="C9" s="38" t="s">
         <v>235</v>
       </c>
-      <c r="B9" s="43" t="s">
-        <v>236</v>
-      </c>
-      <c r="C9" s="38" t="s">
-        <v>237</v>
-      </c>
       <c r="D9" s="43" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E9" s="43" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="F9" s="43" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="G9" s="43" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="H9" s="43" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="I9" s="43" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="J9" s="43" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="K9" s="43" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="L9" s="43" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="M9" s="43" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="37" t="s">
+        <v>236</v>
+      </c>
+      <c r="B10" s="43" t="s">
+        <v>237</v>
+      </c>
+      <c r="C10" s="38" t="s">
         <v>238</v>
       </c>
-      <c r="B10" s="43" t="s">
-        <v>239</v>
-      </c>
-      <c r="C10" s="38" t="s">
-        <v>240</v>
-      </c>
       <c r="D10" s="43" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E10" s="43" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F10" s="43" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="G10" s="43" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="H10" s="43" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="I10" s="43" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J10" s="43" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="K10" s="43" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="L10" s="43" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="M10" s="43" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="39" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B11" s="44" t="s">
         <v>135</v>
@@ -13008,34 +12917,34 @@
         <v>128</v>
       </c>
       <c r="D11" s="44" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E11" s="44" t="s">
+        <v>334</v>
+      </c>
+      <c r="F11" s="44" t="s">
+        <v>335</v>
+      </c>
+      <c r="G11" s="44" t="s">
         <v>336</v>
       </c>
-      <c r="F11" s="44" t="s">
+      <c r="H11" s="44" t="s">
         <v>337</v>
       </c>
-      <c r="G11" s="44" t="s">
+      <c r="I11" s="44" t="s">
         <v>338</v>
       </c>
-      <c r="H11" s="44" t="s">
+      <c r="J11" s="44" t="s">
         <v>339</v>
       </c>
-      <c r="I11" s="44" t="s">
-        <v>340</v>
-      </c>
-      <c r="J11" s="44" t="s">
-        <v>341</v>
-      </c>
       <c r="K11" s="44" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="L11" s="44" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="M11" s="44" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
   </sheetData>
@@ -13044,7 +12953,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFC00000"/>
@@ -13066,143 +12975,143 @@
         <v>16</v>
       </c>
       <c r="B1" s="34" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="35" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B2" s="36" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="37" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B3" s="38" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="37" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B4" s="38" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="37" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B5" s="38" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="37" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B6" s="38" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="37" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B7" s="38" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="37" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B8" s="38" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="37" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B9" s="38" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="37" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B10" s="38" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="37" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B11" s="38" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="37" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B12" s="38" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="37" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B13" s="38" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="37" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B14" s="38" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="37" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B15" s="38" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="37" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B16" s="38" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="37" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B17" s="38" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="39" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B18" s="40" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -13288,16 +13197,16 @@
         <v>131</v>
       </c>
       <c r="D3" s="7" t="s">
+        <v>1151</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1152</v>
+      </c>
+      <c r="F3" s="101" t="s">
         <v>1153</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>1154</v>
-      </c>
-      <c r="F3" s="101" t="s">
-        <v>1155</v>
-      </c>
-      <c r="G3" t="s">
-        <v>1156</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -13331,16 +13240,16 @@
         <v>17</v>
       </c>
       <c r="C5" s="7" t="s">
+        <v>1155</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>1156</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1156</v>
+      </c>
+      <c r="F5" s="101" t="s">
         <v>1157</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>1158</v>
-      </c>
-      <c r="E5" t="s">
-        <v>1158</v>
-      </c>
-      <c r="F5" s="101" t="s">
-        <v>1159</v>
       </c>
       <c r="G5" t="s">
         <v>17</v>
@@ -13357,16 +13266,16 @@
         <v>132</v>
       </c>
       <c r="D6" s="8" t="s">
+        <v>1158</v>
+      </c>
+      <c r="E6" s="102" t="s">
+        <v>1159</v>
+      </c>
+      <c r="F6" s="103" t="s">
         <v>1160</v>
       </c>
-      <c r="E6" s="102" t="s">
+      <c r="G6" s="104" t="s">
         <v>1161</v>
-      </c>
-      <c r="F6" s="103" t="s">
-        <v>1162</v>
-      </c>
-      <c r="G6" s="104" t="s">
-        <v>1163</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="135" x14ac:dyDescent="0.25">
@@ -13426,13 +13335,13 @@
         <v>38</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E9" t="s">
         <v>38</v>
       </c>
       <c r="F9" s="101" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="G9" t="s">
         <v>68</v>
@@ -13449,16 +13358,16 @@
         <v>133</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E10" s="102" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="F10" s="103" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G10" s="104" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -13472,13 +13381,13 @@
         <v>23</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="E11" t="s">
         <v>9</v>
       </c>
       <c r="F11" s="101" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="G11" t="s">
         <v>9</v>
@@ -13495,16 +13404,16 @@
         <v>134</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E12" s="102" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F12" s="103" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="G12" s="104" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -13515,16 +13424,16 @@
         <v>70</v>
       </c>
       <c r="C13" s="7" t="s">
+        <v>1166</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>1167</v>
+      </c>
+      <c r="E13" s="105" t="s">
+        <v>1167</v>
+      </c>
+      <c r="F13" s="101" t="s">
         <v>1168</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>1169</v>
-      </c>
-      <c r="E13" s="105" t="s">
-        <v>1169</v>
-      </c>
-      <c r="F13" s="101" t="s">
-        <v>1170</v>
       </c>
       <c r="G13" t="s">
         <v>70</v>
@@ -13538,19 +13447,19 @@
         <v>129</v>
       </c>
       <c r="C14" s="7" t="s">
+        <v>1169</v>
+      </c>
+      <c r="D14" s="32" t="s">
+        <v>1170</v>
+      </c>
+      <c r="E14" t="s">
+        <v>1170</v>
+      </c>
+      <c r="F14" s="106" t="s">
         <v>1171</v>
       </c>
-      <c r="D14" s="32" t="s">
+      <c r="G14" t="s">
         <v>1172</v>
-      </c>
-      <c r="E14" t="s">
-        <v>1172</v>
-      </c>
-      <c r="F14" s="106" t="s">
-        <v>1173</v>
-      </c>
-      <c r="G14" t="s">
-        <v>1174</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -13561,19 +13470,19 @@
         <v>71</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
       <c r="D15" s="72">
         <v>111258001001</v>
       </c>
       <c r="E15" s="64" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="F15" s="107" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="G15" s="64" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13584,24 +13493,24 @@
         <v>72</v>
       </c>
       <c r="C16" s="10" t="s">
+        <v>1176</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1177</v>
+      </c>
+      <c r="E16" t="s">
         <v>1178</v>
       </c>
-      <c r="D16" t="s">
+      <c r="F16" t="s">
         <v>1179</v>
       </c>
-      <c r="E16" t="s">
+      <c r="G16" t="s">
         <v>1180</v>
-      </c>
-      <c r="F16" t="s">
-        <v>1181</v>
-      </c>
-      <c r="G16" t="s">
-        <v>1182</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B17" s="80"/>
       <c r="C17" s="80"/>
@@ -13610,7 +13519,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B18" s="80"/>
       <c r="C18" s="80"/>
@@ -13619,7 +13528,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B19" s="80"/>
       <c r="C19" s="80"/>
@@ -13686,10 +13595,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="48" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -13711,7 +13620,7 @@
         <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="90" x14ac:dyDescent="0.25">
@@ -13799,7 +13708,7 @@
         <v>70</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -13810,7 +13719,7 @@
         <v>129</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -13818,21 +13727,21 @@
         <v>12</v>
       </c>
       <c r="B16" s="52" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C16" s="52" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="48" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B17" s="53" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="C17" s="53" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
   </sheetData>
@@ -13849,7 +13758,7 @@
   <dimension ref="A1:AQ7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13895,10 +13804,10 @@
         <v>76</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C1" s="27" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="D1" s="27" t="s">
         <v>136</v>
@@ -14026,10 +13935,10 @@
         <v>1307</v>
       </c>
       <c r="B2" s="64" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="C2" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="D2" t="s">
         <v>73</v>
@@ -14054,18 +13963,6 @@
       </c>
       <c r="K2">
         <v>1500</v>
-      </c>
-      <c r="L2" t="s">
-        <v>179</v>
-      </c>
-      <c r="M2" t="s">
-        <v>180</v>
-      </c>
-      <c r="N2">
-        <v>3</v>
-      </c>
-      <c r="O2">
-        <v>6000</v>
       </c>
     </row>
     <row r="3" spans="1:43" x14ac:dyDescent="0.25">
@@ -14076,13 +13973,13 @@
         <v>1228200896</v>
       </c>
       <c r="C3" t="s">
+        <v>1181</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1182</v>
+      </c>
+      <c r="E3" t="s">
         <v>1183</v>
-      </c>
-      <c r="D3" t="s">
-        <v>1184</v>
-      </c>
-      <c r="E3" t="s">
-        <v>1185</v>
       </c>
       <c r="F3">
         <v>5</v>
@@ -14099,13 +13996,13 @@
         <v>1322200293</v>
       </c>
       <c r="C4" t="s">
+        <v>1184</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1185</v>
+      </c>
+      <c r="E4" t="s">
         <v>1186</v>
-      </c>
-      <c r="D4" t="s">
-        <v>1187</v>
-      </c>
-      <c r="E4" t="s">
-        <v>1188</v>
       </c>
       <c r="F4">
         <v>3</v>
@@ -14122,13 +14019,13 @@
         <v>1284200914</v>
       </c>
       <c r="C5" t="s">
+        <v>1187</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1188</v>
+      </c>
+      <c r="E5" t="s">
         <v>1189</v>
-      </c>
-      <c r="D5" t="s">
-        <v>1190</v>
-      </c>
-      <c r="E5" t="s">
-        <v>1191</v>
       </c>
       <c r="F5">
         <v>4</v>
@@ -14145,13 +14042,13 @@
         <v>1201200189</v>
       </c>
       <c r="C6" t="s">
+        <v>1190</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1191</v>
+      </c>
+      <c r="E6" t="s">
         <v>1192</v>
-      </c>
-      <c r="D6" t="s">
-        <v>1193</v>
-      </c>
-      <c r="E6" t="s">
-        <v>1194</v>
       </c>
       <c r="F6">
         <v>2</v>
@@ -14168,13 +14065,13 @@
         <v>1289200118</v>
       </c>
       <c r="C7" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="D7" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="E7" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="F7">
         <v>5</v>
@@ -14250,10 +14147,10 @@
         <v>76</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C1" s="28" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D1" s="28" t="s">
         <v>0</v>
@@ -14387,16 +14284,16 @@
         <v>1307200415</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="E2" t="s">
         <v>74</v>
       </c>
       <c r="F2" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="G2" t="s">
         <v>117</v>
@@ -14405,10 +14302,10 @@
         <v>1000</v>
       </c>
       <c r="I2" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="J2" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="K2" t="s">
         <v>117</v>
@@ -14460,7 +14357,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B2" s="64"/>
       <c r="C2" s="64"/>
@@ -14470,7 +14367,7 @@
         <v>125</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="C3" s="30"/>
     </row>

--- a/WppRegpack/TestResource/Full_Regression/DS_CHN_FULL_REGRESSION.xlsx
+++ b/WppRegpack/TestResource/Full_Regression/DS_CHN_FULL_REGRESSION.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Music\GlobalTestPack\WppRegpack\TestResource\Critical_Regression\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Documents\China\GlobalTestPack\WppRegPack\TestResource\Full_Regression\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="21" activeTab="21"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="41" activeTab="45"/>
   </bookViews>
   <sheets>
     <sheet name="Server Details" sheetId="1" r:id="rId1"/>
@@ -7129,7 +7129,7 @@
   </sheetPr>
   <dimension ref="A1:AQ2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
@@ -12960,8 +12960,8 @@
   </sheetPr>
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
